--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H2">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I2">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J2">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>3.874781121462</v>
+        <v>11.02220943066533</v>
       </c>
       <c r="R2">
-        <v>34.873030093158</v>
+        <v>99.199884875988</v>
       </c>
       <c r="S2">
-        <v>0.00243457700418789</v>
+        <v>0.008348065440221082</v>
       </c>
       <c r="T2">
-        <v>0.002434577004187891</v>
+        <v>0.008348065440221082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H3">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I3">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J3">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>316.8755295036401</v>
+        <v>171.8751921312023</v>
       </c>
       <c r="R3">
-        <v>2851.87976553276</v>
+        <v>1546.87672918082</v>
       </c>
       <c r="S3">
-        <v>0.1990971497838679</v>
+        <v>0.1301758382008205</v>
       </c>
       <c r="T3">
-        <v>0.1990971497838679</v>
+        <v>0.1301758382008204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H4">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I4">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J4">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>294.210733921944</v>
+        <v>203.3591740776815</v>
       </c>
       <c r="R4">
-        <v>2647.896605297496</v>
+        <v>1830.232566699133</v>
       </c>
       <c r="S4">
-        <v>0.1848565544061871</v>
+        <v>0.1540213605764629</v>
       </c>
       <c r="T4">
-        <v>0.1848565544061871</v>
+        <v>0.1540213605764629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H5">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I5">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J5">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>50.959339969376</v>
+        <v>19.40663382983545</v>
       </c>
       <c r="R5">
-        <v>458.634059724384</v>
+        <v>174.659704468519</v>
       </c>
       <c r="S5">
-        <v>0.03201843751918165</v>
+        <v>0.01469830982662569</v>
       </c>
       <c r="T5">
-        <v>0.03201843751918165</v>
+        <v>0.01469830982662568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H6">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I6">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J6">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>118.71345519803</v>
+        <v>65.78256814130367</v>
       </c>
       <c r="R6">
-        <v>1068.42109678227</v>
+        <v>592.0431132717331</v>
       </c>
       <c r="S6">
-        <v>0.07458925783239177</v>
+        <v>0.0498227861776581</v>
       </c>
       <c r="T6">
-        <v>0.07458925783239177</v>
+        <v>0.0498227861776581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H7">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I7">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J7">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>278.4869185606081</v>
+        <v>290.9009179779368</v>
       </c>
       <c r="R7">
-        <v>2506.382267045472</v>
+        <v>2618.108261801431</v>
       </c>
       <c r="S7">
-        <v>0.1749770700955066</v>
+        <v>0.2203242385454848</v>
       </c>
       <c r="T7">
-        <v>0.1749770700955066</v>
+        <v>0.2203242385454848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.010853</v>
       </c>
       <c r="I8">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J8">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>0.589344483501</v>
+        <v>3.090766611348</v>
       </c>
       <c r="R8">
-        <v>5.304100351509</v>
+        <v>27.816899502132</v>
       </c>
       <c r="S8">
-        <v>0.0003702930519428038</v>
+        <v>0.002340902891955482</v>
       </c>
       <c r="T8">
-        <v>0.000370293051942804</v>
+        <v>0.002340902891955481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.010853</v>
       </c>
       <c r="I9">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J9">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>48.19597273122001</v>
@@ -1013,10 +1013,10 @@
         <v>433.76375458098</v>
       </c>
       <c r="S9">
-        <v>0.03028217678050994</v>
+        <v>0.03650294769358676</v>
       </c>
       <c r="T9">
-        <v>0.03028217678050995</v>
+        <v>0.03650294769358676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.010853</v>
       </c>
       <c r="I10">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J10">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>44.748714208212</v>
+        <v>57.02447855889301</v>
       </c>
       <c r="R10">
-        <v>402.7384278739081</v>
+        <v>513.220307030037</v>
       </c>
       <c r="S10">
-        <v>0.02811621796515384</v>
+        <v>0.04318953306944988</v>
       </c>
       <c r="T10">
-        <v>0.02811621796515386</v>
+        <v>0.04318953306944988</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.010853</v>
       </c>
       <c r="I11">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J11">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>7.750787709648</v>
+        <v>5.441865014199</v>
       </c>
       <c r="R11">
-        <v>69.75708938683201</v>
+        <v>48.976785127791</v>
       </c>
       <c r="S11">
-        <v>0.004869923985572459</v>
+        <v>0.004121591550328639</v>
       </c>
       <c r="T11">
-        <v>0.00486992398557246</v>
+        <v>0.004121591550328639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.010853</v>
       </c>
       <c r="I12">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J12">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>18.056018584065</v>
+        <v>18.446262203493</v>
       </c>
       <c r="R12">
-        <v>162.504167256585</v>
+        <v>166.016359831437</v>
       </c>
       <c r="S12">
-        <v>0.01134483890934404</v>
+        <v>0.01397093794768704</v>
       </c>
       <c r="T12">
-        <v>0.01134483890934405</v>
+        <v>0.01397093794768704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.010853</v>
       </c>
       <c r="I13">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J13">
-        <v>0.1015970238899288</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>42.35716135598401</v>
+        <v>81.572288219751</v>
       </c>
       <c r="R13">
-        <v>381.2144522038561</v>
+        <v>734.1505939777591</v>
       </c>
       <c r="S13">
-        <v>0.02661357319740568</v>
+        <v>0.06178169671431757</v>
       </c>
       <c r="T13">
-        <v>0.02661357319740569</v>
+        <v>0.06178169671431757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H14">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I14">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J14">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>0.131607342495</v>
+        <v>0.8989231888346666</v>
       </c>
       <c r="R14">
-        <v>1.184466082455</v>
+        <v>8.090308699511999</v>
       </c>
       <c r="S14">
-        <v>8.269066034359973E-05</v>
+        <v>0.0006808317019676726</v>
       </c>
       <c r="T14">
-        <v>8.269066034359976E-05</v>
+        <v>0.0006808317019676725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H15">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I15">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J15">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>10.76271021056667</v>
+        <v>14.01738886963111</v>
       </c>
       <c r="R15">
-        <v>96.86439189510001</v>
+        <v>126.15649982668</v>
       </c>
       <c r="S15">
-        <v>0.006762355333118081</v>
+        <v>0.01061657196053147</v>
       </c>
       <c r="T15">
-        <v>0.006762355333118084</v>
+        <v>0.01061657196053147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H16">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I16">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J16">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>9.992898078940001</v>
+        <v>16.58508472286022</v>
       </c>
       <c r="R16">
-        <v>89.93608271046001</v>
+        <v>149.265762505742</v>
       </c>
       <c r="S16">
-        <v>0.006278672034770639</v>
+        <v>0.01256130846260745</v>
       </c>
       <c r="T16">
-        <v>0.006278672034770639</v>
+        <v>0.01256130846260745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H17">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I17">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J17">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>1.730839265093334</v>
+        <v>1.582720168456222</v>
       </c>
       <c r="R17">
-        <v>15.57755338584</v>
+        <v>14.244481516106</v>
       </c>
       <c r="S17">
-        <v>0.001087509549739872</v>
+        <v>0.001198729857470393</v>
       </c>
       <c r="T17">
-        <v>0.001087509549739873</v>
+        <v>0.001198729857470393</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H18">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I18">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J18">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>4.032114813008334</v>
+        <v>5.364938517571334</v>
       </c>
       <c r="R18">
-        <v>36.289033317075</v>
+        <v>48.284446658142</v>
       </c>
       <c r="S18">
-        <v>0.002533431875060743</v>
+        <v>0.004063328510420502</v>
       </c>
       <c r="T18">
-        <v>0.002533431875060744</v>
+        <v>0.004063328510420502</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07524500000000001</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H19">
-        <v>0.225735</v>
+        <v>0.293998</v>
       </c>
       <c r="I19">
-        <v>0.02268777377896991</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J19">
-        <v>0.02268777377896992</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>9.458837060080002</v>
+        <v>23.72460643835489</v>
       </c>
       <c r="R19">
-        <v>85.12953354072002</v>
+        <v>213.521457945194</v>
       </c>
       <c r="S19">
-        <v>0.005943114325936978</v>
+        <v>0.01796868117383629</v>
       </c>
       <c r="T19">
-        <v>0.005943114325936979</v>
+        <v>0.01796868117383629</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H20">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I20">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J20">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>0.8844082211669999</v>
+        <v>1.682651950702666</v>
       </c>
       <c r="R20">
-        <v>7.959673990502999</v>
+        <v>15.143867556324</v>
       </c>
       <c r="S20">
-        <v>0.0005556855600544175</v>
+        <v>0.001274416775143204</v>
       </c>
       <c r="T20">
-        <v>0.0005556855600544178</v>
+        <v>0.001274416775143203</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H21">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I21">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J21">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>72.32597522151778</v>
+        <v>26.23848958198445</v>
       </c>
       <c r="R21">
-        <v>650.93377699366</v>
+        <v>236.14640623786</v>
       </c>
       <c r="S21">
-        <v>0.04544338133177755</v>
+        <v>0.01987266069120076</v>
       </c>
       <c r="T21">
-        <v>0.04544338133177756</v>
+        <v>0.01987266069120075</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H22">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I22">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J22">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>67.15279745607066</v>
+        <v>31.04483843348989</v>
       </c>
       <c r="R22">
-        <v>604.375177104636</v>
+        <v>279.403545901409</v>
       </c>
       <c r="S22">
-        <v>0.04219300428297496</v>
+        <v>0.02351292129351422</v>
       </c>
       <c r="T22">
-        <v>0.04219300428297497</v>
+        <v>0.02351292129351422</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H23">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I23">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J23">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>11.63133033877155</v>
+        <v>2.962619289331889</v>
       </c>
       <c r="R23">
-        <v>104.681973048944</v>
+        <v>26.663573603987</v>
       </c>
       <c r="S23">
-        <v>0.007308121022382212</v>
+        <v>0.002243845923757863</v>
       </c>
       <c r="T23">
-        <v>0.007308121022382215</v>
+        <v>0.002243845923757862</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H24">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I24">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J24">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>27.09602231691055</v>
+        <v>10.04237556013433</v>
       </c>
       <c r="R24">
-        <v>243.864200852195</v>
+        <v>90.381380041209</v>
       </c>
       <c r="S24">
-        <v>0.01702479463222481</v>
+        <v>0.007605953132957097</v>
       </c>
       <c r="T24">
-        <v>0.01702479463222482</v>
+        <v>0.007605953132957097</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5056503333333333</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H25">
-        <v>1.516951</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I25">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J25">
-        <v>0.1524630257681892</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>63.56387949199468</v>
+        <v>44.40897264526255</v>
       </c>
       <c r="R25">
-        <v>572.0749154279521</v>
+        <v>399.680753807363</v>
       </c>
       <c r="S25">
-        <v>0.03993803893877522</v>
+        <v>0.03363472742082178</v>
       </c>
       <c r="T25">
-        <v>0.03993803893877523</v>
+        <v>0.03363472742082178</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H26">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I26">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J26">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>0.246596951439</v>
+        <v>1.662340429048</v>
       </c>
       <c r="R26">
-        <v>2.219372562950999</v>
+        <v>14.961063861432</v>
       </c>
       <c r="S26">
-        <v>0.0001549401755755702</v>
+        <v>0.001259033116083716</v>
       </c>
       <c r="T26">
-        <v>0.0001549401755755703</v>
+        <v>0.001259033116083716</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H27">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I27">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J27">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>20.16643962891333</v>
+        <v>25.92176118838667</v>
       </c>
       <c r="R27">
-        <v>181.49795666022</v>
+        <v>233.29585069548</v>
       </c>
       <c r="S27">
-        <v>0.01267084478783952</v>
+        <v>0.01963277508812247</v>
       </c>
       <c r="T27">
-        <v>0.01267084478783953</v>
+        <v>0.01963277508812247</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H28">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I28">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J28">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>18.72401763906799</v>
+        <v>30.67009194605134</v>
       </c>
       <c r="R28">
-        <v>168.516158751612</v>
+        <v>276.030827514462</v>
       </c>
       <c r="S28">
-        <v>0.01176455168463389</v>
+        <v>0.02322909360721329</v>
       </c>
       <c r="T28">
-        <v>0.0117645516846339</v>
+        <v>0.02322909360721329</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H29">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I29">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J29">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>3.243129738138666</v>
+        <v>2.926857107007333</v>
       </c>
       <c r="R29">
-        <v>29.188167643248</v>
+        <v>26.341713963066</v>
       </c>
       <c r="S29">
-        <v>0.00203770195904412</v>
+        <v>0.002216760152959504</v>
       </c>
       <c r="T29">
-        <v>0.002037701959044121</v>
+        <v>0.002216760152959504</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H30">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I30">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J30">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>7.555104463701665</v>
+        <v>9.921152672318</v>
       </c>
       <c r="R30">
-        <v>67.99594017331499</v>
+        <v>89.29037405086201</v>
       </c>
       <c r="S30">
-        <v>0.004746973574761632</v>
+        <v>0.007514140633230149</v>
       </c>
       <c r="T30">
-        <v>0.004746973574761634</v>
+        <v>0.007514140633230149</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.140989</v>
+        <v>0.181226</v>
       </c>
       <c r="H31">
-        <v>0.4229669999999999</v>
+        <v>0.543678</v>
       </c>
       <c r="I31">
-        <v>0.04251081849057331</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J31">
-        <v>0.04251081849057332</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>17.723330164976</v>
+        <v>43.87290586735934</v>
       </c>
       <c r="R31">
-        <v>159.509971484784</v>
+        <v>394.856152806234</v>
       </c>
       <c r="S31">
-        <v>0.01113580630871857</v>
+        <v>0.03322871802947287</v>
       </c>
       <c r="T31">
-        <v>0.01113580630871857</v>
+        <v>0.03322871802947287</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H32">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I32">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J32">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>0.07406647968000001</v>
+        <v>0.7328016649720001</v>
       </c>
       <c r="R32">
-        <v>0.6665983171200001</v>
+        <v>6.595214984748</v>
       </c>
       <c r="S32">
-        <v>4.653696365229543E-05</v>
+        <v>0.0005550136106894815</v>
       </c>
       <c r="T32">
-        <v>4.653696365229546E-05</v>
+        <v>0.0005550136106894814</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H33">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I33">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J33">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>6.05707889848889</v>
+        <v>11.42696732024667</v>
       </c>
       <c r="R33">
-        <v>54.51371008640001</v>
+        <v>102.84270588222</v>
       </c>
       <c r="S33">
-        <v>0.003805743998579401</v>
+        <v>0.008654623337793783</v>
       </c>
       <c r="T33">
-        <v>0.003805743998579403</v>
+        <v>0.008654623337793781</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H34">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I34">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J34">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>5.623841105493334</v>
+        <v>13.52015149856033</v>
       </c>
       <c r="R34">
-        <v>50.61456994944001</v>
+        <v>121.681363487043</v>
       </c>
       <c r="S34">
-        <v>0.003533534876280869</v>
+        <v>0.01023997141241688</v>
       </c>
       <c r="T34">
-        <v>0.00353353487628087</v>
+        <v>0.01023997141241688</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H35">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I35">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J35">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>0.9740882904177779</v>
+        <v>1.290232568294333</v>
       </c>
       <c r="R35">
-        <v>8.766794613760002</v>
+        <v>11.612093114649</v>
       </c>
       <c r="S35">
-        <v>0.0006120327516732158</v>
+        <v>0.0009772038882929705</v>
       </c>
       <c r="T35">
-        <v>0.0006120327516732161</v>
+        <v>0.0009772038882929701</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H36">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I36">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J36">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>2.269208876977778</v>
+        <v>4.373494784627001</v>
       </c>
       <c r="R36">
-        <v>20.4228798928</v>
+        <v>39.361453061643</v>
       </c>
       <c r="S36">
-        <v>0.001425774405421033</v>
+        <v>0.003312423057663489</v>
       </c>
       <c r="T36">
-        <v>0.001425774405421033</v>
+        <v>0.003312423057663488</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.04234666666666667</v>
+        <v>0.079889</v>
       </c>
       <c r="H37">
-        <v>0.12704</v>
+        <v>0.239667</v>
       </c>
       <c r="I37">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J37">
-        <v>0.01276831143101574</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>5.323280218453335</v>
+        <v>19.34028548242233</v>
       </c>
       <c r="R37">
-        <v>47.90952196608001</v>
+        <v>174.062569341801</v>
       </c>
       <c r="S37">
-        <v>0.003344688435408925</v>
+        <v>0.01464805852723428</v>
       </c>
       <c r="T37">
-        <v>0.003344688435408926</v>
+        <v>0.01464805852723427</v>
       </c>
     </row>
   </sheetData>
